--- a/wikipedia_validation_sheets/GM1 gangliosidoses DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/GM1 gangliosidoses DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{58939481-162E-0749-86BA-0E2AC535B2A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5CD11-9B64-DF47-BA1E-99C12BAA6E88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="15440" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15340" windowHeight="5380" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="167">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -375,9 +380,6 @@
     <t>coarsening of facial features</t>
   </si>
   <si>
-    <t>skeletal irregularities</t>
-  </si>
-  <si>
     <t>PROBLEMS WITH GAIT</t>
   </si>
   <si>
@@ -396,9 +398,6 @@
     <t>VISUAL FAILURE</t>
   </si>
   <si>
-    <t>decerebrate rigidity</t>
-  </si>
-  <si>
     <t>Facial dysmorphology</t>
   </si>
   <si>
@@ -414,9 +413,6 @@
     <t>macroglossia</t>
   </si>
   <si>
-    <t>DEMINERALIZATION</t>
-  </si>
-  <si>
     <t xml:space="preserve">early subperiosteal bone formation </t>
   </si>
   <si>
@@ -426,19 +422,115 @@
     <t>kyphoscoliosis</t>
   </si>
   <si>
-    <t>DEMENTIA</t>
-  </si>
-  <si>
     <t>difficulties with speech</t>
   </si>
   <si>
-    <t>Angiokeratomas</t>
-  </si>
-  <si>
     <t>FPCONTEXT</t>
   </si>
   <si>
     <t>Macular cherry-red spots</t>
+  </si>
+  <si>
+    <t>decerebrate, rigidity</t>
+  </si>
+  <si>
+    <t>Decerebrate rigidity</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>demineralization</t>
+  </si>
+  <si>
+    <t>Decalcification</t>
+  </si>
+  <si>
+    <t>muscle, atrophy</t>
+  </si>
+  <si>
+    <t>Muscular atrophy</t>
+  </si>
+  <si>
+    <t>Congenital macroglossia</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>vertebral, hypoplasia</t>
+  </si>
+  <si>
+    <t>Hypoplasia of spine</t>
+  </si>
+  <si>
+    <t>frontal, bossing</t>
+  </si>
+  <si>
+    <t>Frontal bossing</t>
+  </si>
+  <si>
+    <t>complications</t>
+  </si>
+  <si>
+    <t>Complication</t>
+  </si>
+  <si>
+    <t>cardiac, complications</t>
+  </si>
+  <si>
+    <t>Cardiac complication</t>
+  </si>
+  <si>
+    <t>facial, edema</t>
+  </si>
+  <si>
+    <t>Edema of face</t>
+  </si>
+  <si>
+    <t>Congenital kyphoscoliosis</t>
+  </si>
+  <si>
+    <t>skeletal, deformities</t>
+  </si>
+  <si>
+    <t>Congenital anomaly of skeletal bone</t>
+  </si>
+  <si>
+    <t>twisting</t>
+  </si>
+  <si>
+    <t>Torsion (malposition)</t>
+  </si>
+  <si>
+    <t>angiokeratomas</t>
+  </si>
+  <si>
+    <t>Angiokeratoma</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>dementia</t>
+  </si>
+  <si>
+    <t>Presenile dementia</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>flexion, contractures</t>
+  </si>
+  <si>
+    <t>Flexion contracture</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>muscle contractions</t>
   </si>
 </sst>
 </file>
@@ -819,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -899,6 +991,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,7 +1041,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1266,14 +1372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:F75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
@@ -1283,43 +1390,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1547,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2710,339 +2817,474 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="33" t="s">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="34" t="s">
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
@@ -3060,9 +3302,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -3080,9 +3322,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" s="20" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
@@ -3100,9 +3342,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B72" s="20" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
@@ -3120,9 +3362,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" s="20" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
@@ -3140,9 +3382,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" s="20" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -3160,25 +3402,295 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="36" t="s">
+      <c r="G75" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="21" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3188,7 +3700,10 @@
     <mergeCell ref="F2:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C51">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C66">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
